--- a/data/companies-info.xlsx
+++ b/data/companies-info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="278">
   <si>
     <t>Adi</t>
   </si>
@@ -28,40 +28,826 @@
     <t>GSM</t>
   </si>
   <si>
-    <t>Bursa Web Tasarım ve E-Ticaret Hizmetleri, Fononline</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fononline.net </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16040 Osmangazi/Bursa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0850 223 0753 </t>
-  </si>
-  <si>
-    <t>İmza Akademi Kariyer Okulları</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> imzaakademi.com.tr </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16220 Osmangazi/Bursa </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0224) 223 68 80 </t>
-  </si>
-  <si>
-    <t>WordPress Site + SEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> business.site </t>
+    <t>Bahçeşehir Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bahcesehir.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16140 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 440 00 00 </t>
+  </si>
+  <si>
+    <t>Bursa Teknik Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> btu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16330 Yıldırım/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 300 32 00 </t>
+  </si>
+  <si>
+    <t>Bursa Teknik Üniversitesi Mimar Sinan Yerleşkesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16310 Yıldırım </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 300 32 32 </t>
+  </si>
+  <si>
+    <t>Bursa Uludağ Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uludag.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16059 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 00 00 </t>
+  </si>
+  <si>
+    <t>Uludağ Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16159 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 24 85 </t>
+  </si>
+  <si>
+    <t>York University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yorkturkey.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34662 Üsküdar/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 474 47 47 </t>
+  </si>
+  <si>
+    <t>Yalova Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yalova.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77200 Yalova Merkez/Yalova </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0226) 815 50 00 </t>
+  </si>
+  <si>
+    <t>Sabancı Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sabanciuniv.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34956 Tuzla/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 483 90 00 </t>
+  </si>
+  <si>
+    <t>İstinye Üniversitesi Çekmeköy Kampüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> istinye.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34788 Çekmeköy/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0850 283 6000 </t>
+  </si>
+  <si>
+    <t>Maltepe Üniversitesi Eğitim Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maltepe.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34857 Maltepe/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 626 10 50 </t>
+  </si>
+  <si>
+    <t>Bursa Uludağ Üniversitesi, Eğitim Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16120 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 21 50 </t>
+  </si>
+  <si>
+    <t>Fenerbahçe Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fbu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34758 Ataşehir/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0850 336 1907 </t>
+  </si>
+  <si>
+    <t>Marmara Üniversitesi Mehmet Genç Külliyesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marmara.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34865 Kartal/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 777 00 00 </t>
+  </si>
+  <si>
+    <t>Uludağ Üniversitesi Güzel Sanatlar Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gsf.uludag.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16950 Mudanya/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 543 10 15 </t>
+  </si>
+  <si>
+    <t>Near East University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> neu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99138 Nicosia/Şişli/Mersin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0392) 223 64 64 </t>
+  </si>
+  <si>
+    <t>İstanbul Bilgi Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bilgi.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34060 Eyüpsultan/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 0 428 </t>
+  </si>
+  <si>
+    <t>İstinye Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34010 Zeytinburnu/İstanbul </t>
+  </si>
+  <si>
+    <t>Bursa Teknik Üniversitesi Yıldırım Bayezid Yerleşkesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16320 Yıldırım/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 8 416 </t>
+  </si>
+  <si>
+    <t>Yeditepe Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yeditepe.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34755 Ataşehir/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 578 00 00 </t>
+  </si>
+  <si>
+    <t>Sakarya Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sakarya.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54050 Serdivan/Sakarya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0264) 295 54 54 </t>
+  </si>
+  <si>
+    <t>İstanbul Medipol Üniversitesi Güney Kampüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medipol.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34810 Beykoz/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 8 544 </t>
+  </si>
+  <si>
+    <t>Anadolu Üniversitesi Aöf Aksaray Bürosu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anadolu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34096 Shawnee Mission/Fatih/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0850 200 4610 </t>
+  </si>
+  <si>
+    <t>İstanbul Medeniyet Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medeniyet.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34720 Kadıköy/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 280 33 33 </t>
+  </si>
+  <si>
+    <t>İstanbul Üniversitesi-Cerrahpaşa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> istanbulc.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34320 Avcılar/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 404 03 00 </t>
+  </si>
+  <si>
+    <t>Koç Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ku.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34450 Sarıyer/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 338 10 00 </t>
+  </si>
+  <si>
+    <t>KÜLTÜR ÜNİVERSİTESİ MESLEK YÜKSEK OKULLARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iku.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34147 Bakırköy/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 498 41 41 </t>
+  </si>
+  <si>
+    <t>Armutlu Meslek Yüksek Okulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77500 Armutlu/Yalova </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0226) 815 54 35 </t>
+  </si>
+  <si>
+    <t>Bahçeşehir Üniversitesi Tıp Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34734 Kadıköy/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 579 81 95 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bau.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34349 Beşiktaş/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 381 00 00 </t>
+  </si>
+  <si>
+    <t>Üsküdar Üniversitesi Merkez Yerleşke B Blok</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> uskudar.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 400 22 22 </t>
+  </si>
+  <si>
+    <t>Yalova Üniversitesi Rektörlük</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77200 merkez </t>
+  </si>
+  <si>
+    <t>İstanbul 29 Mayıs Üniversitesi Elmalıkent Yerleşkesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29mayis.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ümraniye/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 474 08 60 </t>
+  </si>
+  <si>
+    <t>Doğuş Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dogus.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34775 Ümraniye/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 7 997 </t>
+  </si>
+  <si>
+    <t>Koç Üniversitesi Anadolu Medeniyetleri Araştırma Merkezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcac.ku.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34433 Beyoğlu/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 393 60 00 </t>
+  </si>
+  <si>
+    <t>Maltepe Üniversitesi Mimarlık ve Tasarım Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mimarlik.maltepe.edu.tr </t>
+  </si>
+  <si>
+    <t>B.U.Ü. Fen-Edebiyat Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16285 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 16 51 </t>
+  </si>
+  <si>
+    <t>Maltepe Üniversitesi Hemşirelik Yüksekokulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hemsirelik.maltepe.edu.tr </t>
+  </si>
+  <si>
+    <t>Eskişehir Teknik Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eskisehir.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26555 Tepebaşı/Eskişehir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0222) 321 35 50 </t>
+  </si>
+  <si>
+    <t>Uludağ Üniversitesi Fen Bilimleri Enstitüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 03 94 </t>
+  </si>
+  <si>
+    <t>Ankara Üniversitesi TÖMER (Bursa Şubesi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tomer.ankara.edu.tr </t>
   </si>
   <si>
     <t xml:space="preserve"> 16050 Osmangazi/Bursa </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0531 744 44 74 </t>
+    <t xml:space="preserve"> (0224) 250 72 97 </t>
+  </si>
+  <si>
+    <t>Öğrenci İşleri Daire Başkanlığı</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ogrisl.sakarya.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 1 728 </t>
+  </si>
+  <si>
+    <t>Tekirdağ Namık Kemal Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nku.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59030 Süleymanpaşa/Tekirdağ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0282) 250 00 00 </t>
+  </si>
+  <si>
+    <t>Bursa Teknik Üniversitesi Teknoloji Transfer Ofisi A.Ş.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursatto.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 300 37 88 </t>
+  </si>
+  <si>
+    <t>Bogaziçi Üniversitesi Hisar Kampüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> boun.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34342 İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 359 77 97 </t>
+  </si>
+  <si>
+    <t>Marmara Üniversitesi Avrupa Birliği Enstitüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34722 Kadıköy/Istanbul - Asia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 336 33 35 </t>
+  </si>
+  <si>
+    <t>Koç Üniversitesi Hemşirelik Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing.ku.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topkapı - Zeytinburnu/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 311 26 01 </t>
+  </si>
+  <si>
+    <t>İstanbul Üniversitesi - Sosyal Bilimler Enstitüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sosyalbilimler.istanbul.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34119 Fatih </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 440 20 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16130 Nilüfer/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 245 70 00 </t>
+  </si>
+  <si>
+    <t>Medeniyet Araştırmaları Merkezi Bahçeşehir Üniversity Civilization Studies Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34353 Beşiktaş/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 2 864 </t>
+  </si>
+  <si>
+    <t>Uludağ Üniversitesi Yenişehir İbrahim Orhan Myo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16900 Yenişehir/Bursa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 773 60 42 </t>
+  </si>
+  <si>
+    <t>Ankara Bilim Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ankarabilim.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06200 Yenimahalle/Ankara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0312) 397 01 50 </t>
+  </si>
+  <si>
+    <t>Anadolu Üniversitesi Açıköğretim Fakültesi Bürosu Kadıköy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34722 Kadıköy/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 335 05 81 </t>
+  </si>
+  <si>
+    <t>TED Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tedu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06420 Çankaya/Ankara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0312) 585 00 00 </t>
+  </si>
+  <si>
+    <t>T.C. İzmir Ekonomi Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ieu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35330 Balçova/İzmir </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0232) 279 25 25 </t>
+  </si>
+  <si>
+    <t>Ankara Sosyal Bilimler Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asbu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06050 Altındağ/Ankara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0312) 596 44 44 </t>
+  </si>
+  <si>
+    <t>Abdullah Gül University</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38080 Kocasinan/Kayseri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0352) 224 88 00 </t>
+  </si>
+  <si>
+    <t>TOBB Ekonomi ve Teknoloji Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> etu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06510 Çankaya/Ankara </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0312) 292 40 00 </t>
+  </si>
+  <si>
+    <t>İstanbul Üniversitesi - Cerrahpaşa Mühendislik Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> muhendislik.istanbulc.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0212) 473 70 70 </t>
+  </si>
+  <si>
+    <t>Lokman Hekim Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lokmanhekim.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 444 8 548 </t>
+  </si>
+  <si>
+    <t>Necmettin Erbakan Üniversitesi Rektörlüğü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erbakan.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeni Meram Cd. No: 11/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0332) 221 05 00 </t>
+  </si>
+  <si>
+    <t>Sabancı University Nanotechnology Research and Application Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sunum.sabanciuniv.edu </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 483 98 80 </t>
+  </si>
+  <si>
+    <t>Bursa Uludağ Üniversitesi Veteriner Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 12 00 </t>
+  </si>
+  <si>
+    <t>Hitit Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hitit.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19030 Çorum Merkez/Çorum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0364) 219 19 19 </t>
+  </si>
+  <si>
+    <t>Ondokuz Mayıs Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> omu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55270 Atakum/Samsun </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0362) 312 19 19 </t>
+  </si>
+  <si>
+    <t>Toros Üniversitesi Bahçelievler Kampüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> toros.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33140 Yenişehir/Mersin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0324) 325 33 00 </t>
+  </si>
+  <si>
+    <t>KOCAELİ ÜNİVERSİTESİ SERVİSİ İSTAŞ TURİZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> istastasimacilik.com.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34692 Üsküdar/İstanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 505 00 92 </t>
+  </si>
+  <si>
+    <t>Ptt Üniversite Şubesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ptt.gov.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 442 90 70 </t>
+  </si>
+  <si>
+    <t>Uludağ Üniversitesi Bilgiişlem Daire Başkanlığı</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 05 00 </t>
+  </si>
+  <si>
+    <t>Bayburt Üniversitesi Dede Korkut Kampüsü</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bayburt.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69000 Merkez/Bayburt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0458) 211 11 53 </t>
+  </si>
+  <si>
+    <t>Bitlis Eren Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beu.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13100 Merkez/Bitlis </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0434) 228 51 70 </t>
+  </si>
+  <si>
+    <t>Marmara Üniversitesi Sürekli Eğitim Merkezi - MÜSEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> musem.marmara.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0216) 777 07 00 </t>
+  </si>
+  <si>
+    <t>Strasbourg Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unistra.fr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fransa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +33 3 68 85 00 00 </t>
+  </si>
+  <si>
+    <t>Osmaniye Korkut Ata Üniversitesi Fen-Edebiyat Fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fef.osmaniye.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80000 Osmaniye </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0328) 827 10 00 </t>
+  </si>
+  <si>
+    <t>Bursa Uludağ Üniversitesi Prof. Dr. Fuat Sezgin Merkez Kütüphanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0224) 294 04 60 </t>
+  </si>
+  <si>
+    <t>Iğdır Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> igdir.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76000 Merkez/Iğdır </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0476) 223 00 10 </t>
+  </si>
+  <si>
+    <t>Siirt Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> siirt.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56100 Siirt Merkez/Siirt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0484) 212 11 11 </t>
+  </si>
+  <si>
+    <t>Uluslararası Balkan Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ibu.edu.mk </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скопје 1000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +389 2 260 0004 </t>
+  </si>
+  <si>
+    <t>Muş Alparslan Üniversitesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alparslan.edu.tr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49250 Merkez/Muş </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0436) 249 49 49 </t>
   </si>
 </sst>
 </file>
@@ -393,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,13 +1235,1063 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" t="s">
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="D70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
+        <v>258</v>
+      </c>
+      <c r="D74" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>264</v>
+      </c>
+      <c r="D76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>276</v>
+      </c>
+      <c r="D79" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
